--- a/KHÁCH HÀNG HOPO.xlsx
+++ b/KHÁCH HÀNG HOPO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LINH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hopo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8611ED-0201-4984-8851-A65CABF89965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,15 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>K224111388</t>
-  </si>
-  <si>
     <t>0938815376</t>
   </si>
   <si>
-    <t>Hien2@</t>
-  </si>
-  <si>
     <t>K224111399</t>
   </si>
   <si>
@@ -46,13 +41,19 @@
   </si>
   <si>
     <t>MẬT KHẨU</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>chuoi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +73,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -142,10 +151,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,8 +169,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,55 +473,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.90625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{AE0BDCF3-7817-45A0-955D-A2B3AB9A6439}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/KHÁCH HÀNG HOPO.xlsx
+++ b/KHÁCH HÀNG HOPO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hopo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8611ED-0201-4984-8851-A65CABF89965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2AC2FD-4D12-4BD9-8F84-D978685E7201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>MẬT KHẨU</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>chuoi</t>
+    <t>K224111381</t>
+  </si>
+  <si>
+    <t>Co1122</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KHÁCH HÀNG HOPO.xlsx
+++ b/KHÁCH HÀNG HOPO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hopo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2AC2FD-4D12-4BD9-8F84-D978685E7201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8611ED-0201-4984-8851-A65CABF89965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>MẬT KHẨU</t>
   </si>
   <si>
-    <t>K224111381</t>
-  </si>
-  <si>
-    <t>Co1122</t>
+    <t>co</t>
+  </si>
+  <si>
+    <t>chuoi</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KHÁCH HÀNG HOPO.xlsx
+++ b/KHÁCH HÀNG HOPO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hopo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8611ED-0201-4984-8851-A65CABF89965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B56AFA6-7A94-43BA-9808-C0AC6036F4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>0938815376</t>
   </si>
@@ -43,17 +43,26 @@
     <t>MẬT KHẨU</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>chuoi</t>
+    <t>TRẠNG THÁI</t>
+  </si>
+  <si>
+    <t>MÃ TỦ</t>
+  </si>
+  <si>
+    <t>K224111388</t>
+  </si>
+  <si>
+    <t>Hien2@</t>
+  </si>
+  <si>
+    <t>Chưa sử dụng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +83,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +124,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,11 +176,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,11 +193,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,20 +504,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -497,34 +530,151 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{AE0BDCF3-7817-45A0-955D-A2B3AB9A6439}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KHÁCH HÀNG HOPO.xlsx
+++ b/KHÁCH HÀNG HOPO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hopo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LINH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B56AFA6-7A94-43BA-9808-C0AC6036F4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,48 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>0938815376</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>K224111388</t>
   </si>
   <si>
     <t>K224111399</t>
   </si>
   <si>
-    <t>0906640591</t>
-  </si>
-  <si>
-    <t>Li244@</t>
-  </si>
-  <si>
     <t>TÊN ĐĂNG NHẬP</t>
   </si>
   <si>
-    <t>SĐT</t>
-  </si>
-  <si>
-    <t>MẬT KHẨU</t>
-  </si>
-  <si>
-    <t>TRẠNG THÁI</t>
-  </si>
-  <si>
-    <t>MÃ TỦ</t>
-  </si>
-  <si>
-    <t>K224111388</t>
-  </si>
-  <si>
-    <t>Hien2@</t>
-  </si>
-  <si>
-    <t>Chưa sử dụng</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>MÃ ĐỊNH DANH</t>
+  </si>
+  <si>
+    <t>K22411381</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,18 +65,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -105,12 +80,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -124,30 +93,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,29 +124,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,175 +437,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="26.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/KHÁCH HÀNG HOPO.xlsx
+++ b/KHÁCH HÀNG HOPO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LINH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Hopo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>K224111388</t>
   </si>
@@ -27,16 +27,13 @@
     <t>K224111399</t>
   </si>
   <si>
-    <t>TÊN ĐĂNG NHẬP</t>
+    <t>K22411381</t>
   </si>
   <si>
-    <t>0</t>
+    <t>ten_dang_nhap</t>
   </si>
   <si>
-    <t>MÃ ĐỊNH DANH</t>
-  </si>
-  <si>
-    <t>K22411381</t>
+    <t>ma_dinh_danh</t>
   </si>
 </sst>
 </file>
@@ -441,7 +438,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,7 +450,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -463,24 +460,24 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
+      <c r="B2" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
+      <c r="B3" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/KHÁCH HÀNG HOPO.xlsx
+++ b/KHÁCH HÀNG HOPO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Hopo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\Hopo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8080" windowHeight="4100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>ten_dang_nhap</t>
+  </si>
+  <si>
+    <t>ma_dinh_danh</t>
+  </si>
   <si>
     <t>K224111388</t>
   </si>
@@ -30,17 +36,17 @@
     <t>K22411381</t>
   </si>
   <si>
-    <t>ten_dang_nhap</t>
-  </si>
-  <si>
-    <t>ma_dinh_danh</t>
+    <t>K22411378</t>
+  </si>
+  <si>
+    <t>K224060788</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,49 +55,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -104,16 +78,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -121,18 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,53 +402,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>